--- a/data/SARA_listings.xlsx
+++ b/data/SARA_listings.xlsx
@@ -538,11 +538,13 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
